--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il1a</t>
+  </si>
+  <si>
+    <t>Il1r1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il1a</t>
-  </si>
-  <si>
-    <t>Il1r1</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>94.03756699999998</v>
+        <v>7.276914333333333</v>
       </c>
       <c r="H2">
-        <v>282.112701</v>
+        <v>21.830743</v>
       </c>
       <c r="I2">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.467363</v>
+        <v>13.79081533333333</v>
       </c>
       <c r="N2">
-        <v>19.402089</v>
+        <v>41.372446</v>
       </c>
       <c r="O2">
-        <v>0.1496800897841894</v>
+        <v>0.2771682650956311</v>
       </c>
       <c r="P2">
-        <v>0.1496800897841894</v>
+        <v>0.2771682650956311</v>
       </c>
       <c r="Q2">
-        <v>608.1750814258208</v>
+        <v>100.3545817674864</v>
       </c>
       <c r="R2">
-        <v>5473.575732832388</v>
+        <v>903.1912359073779</v>
       </c>
       <c r="S2">
-        <v>0.1420001082721105</v>
+        <v>0.2771682650956311</v>
       </c>
       <c r="T2">
-        <v>0.1420001082721105</v>
+        <v>0.2771682650956311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>94.03756699999998</v>
+        <v>7.276914333333333</v>
       </c>
       <c r="H3">
-        <v>282.112701</v>
+        <v>21.830743</v>
       </c>
       <c r="I3">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>78.91898400000001</v>
       </c>
       <c r="O3">
-        <v>0.6088313794868691</v>
+        <v>0.5287054547944754</v>
       </c>
       <c r="P3">
-        <v>0.6088313794868691</v>
+        <v>0.5287054547944753</v>
       </c>
       <c r="Q3">
-        <v>2473.783081823976</v>
+        <v>191.428895280568</v>
       </c>
       <c r="R3">
-        <v>22264.04773641579</v>
+        <v>1722.860057525112</v>
       </c>
       <c r="S3">
-        <v>0.5775926640025697</v>
+        <v>0.5287054547944754</v>
       </c>
       <c r="T3">
-        <v>0.5775926640025697</v>
+        <v>0.5287054547944753</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>94.03756699999998</v>
+        <v>7.276914333333333</v>
       </c>
       <c r="H4">
-        <v>282.112701</v>
+        <v>21.830743</v>
       </c>
       <c r="I4">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.13950433333333</v>
+        <v>9.588979333333333</v>
       </c>
       <c r="N4">
-        <v>30.418513</v>
+        <v>28.766938</v>
       </c>
       <c r="O4">
-        <v>0.2346678111280456</v>
+        <v>0.1927196254621635</v>
       </c>
       <c r="P4">
-        <v>0.2346678111280456</v>
+        <v>0.1927196254621635</v>
       </c>
       <c r="Q4">
-        <v>953.4943180926234</v>
+        <v>69.77818115277044</v>
       </c>
       <c r="R4">
-        <v>8581.448862833611</v>
+        <v>628.0036303749339</v>
       </c>
       <c r="S4">
-        <v>0.2226271686248114</v>
+        <v>0.1927196254621635</v>
       </c>
       <c r="T4">
-        <v>0.2226271686248114</v>
+        <v>0.1927196254621635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,309 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>94.03756699999998</v>
+        <v>7.276914333333333</v>
       </c>
       <c r="H5">
-        <v>282.112701</v>
+        <v>21.830743</v>
       </c>
       <c r="I5">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9486906941120089</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.294709</v>
+        <v>0.06998966666666667</v>
       </c>
       <c r="N5">
-        <v>0.884127</v>
+        <v>0.209969</v>
       </c>
       <c r="O5">
-        <v>0.006820719600895863</v>
+        <v>0.001406654647730148</v>
       </c>
       <c r="P5">
-        <v>0.006820719600895864</v>
+        <v>0.001406654647730148</v>
       </c>
       <c r="Q5">
-        <v>27.71371733300299</v>
+        <v>0.5093088085518889</v>
       </c>
       <c r="R5">
-        <v>249.423455997027</v>
+        <v>4.583779276967</v>
       </c>
       <c r="S5">
-        <v>0.006470753212517281</v>
+        <v>0.001406654647730148</v>
       </c>
       <c r="T5">
-        <v>0.006470753212517282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>5.085959333333333</v>
-      </c>
-      <c r="H6">
-        <v>15.257878</v>
-      </c>
-      <c r="I6">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="J6">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>6.467363</v>
-      </c>
-      <c r="N6">
-        <v>19.402089</v>
-      </c>
-      <c r="O6">
-        <v>0.1496800897841894</v>
-      </c>
-      <c r="P6">
-        <v>0.1496800897841894</v>
-      </c>
-      <c r="Q6">
-        <v>32.89274521190467</v>
-      </c>
-      <c r="R6">
-        <v>296.034706907142</v>
-      </c>
-      <c r="S6">
-        <v>0.007679981512078935</v>
-      </c>
-      <c r="T6">
-        <v>0.007679981512078935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>5.085959333333333</v>
-      </c>
-      <c r="H7">
-        <v>15.257878</v>
-      </c>
-      <c r="I7">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="J7">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>26.306328</v>
-      </c>
-      <c r="N7">
-        <v>78.91898400000001</v>
-      </c>
-      <c r="O7">
-        <v>0.6088313794868691</v>
-      </c>
-      <c r="P7">
-        <v>0.6088313794868691</v>
-      </c>
-      <c r="Q7">
-        <v>133.792914417328</v>
-      </c>
-      <c r="R7">
-        <v>1204.136229755952</v>
-      </c>
-      <c r="S7">
-        <v>0.03123871548429931</v>
-      </c>
-      <c r="T7">
-        <v>0.03123871548429931</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>5.085959333333333</v>
-      </c>
-      <c r="H8">
-        <v>15.257878</v>
-      </c>
-      <c r="I8">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="J8">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>10.13950433333333</v>
-      </c>
-      <c r="N8">
-        <v>30.418513</v>
-      </c>
-      <c r="O8">
-        <v>0.2346678111280456</v>
-      </c>
-      <c r="P8">
-        <v>0.2346678111280456</v>
-      </c>
-      <c r="Q8">
-        <v>51.56910669949044</v>
-      </c>
-      <c r="R8">
-        <v>464.1219602954139</v>
-      </c>
-      <c r="S8">
-        <v>0.0120406425032342</v>
-      </c>
-      <c r="T8">
-        <v>0.0120406425032342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.085959333333333</v>
-      </c>
-      <c r="H9">
-        <v>15.257878</v>
-      </c>
-      <c r="I9">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="J9">
-        <v>0.05130930588799103</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.294709</v>
-      </c>
-      <c r="N9">
-        <v>0.884127</v>
-      </c>
-      <c r="O9">
-        <v>0.006820719600895863</v>
-      </c>
-      <c r="P9">
-        <v>0.006820719600895864</v>
-      </c>
-      <c r="Q9">
-        <v>1.498877989167333</v>
-      </c>
-      <c r="R9">
-        <v>13.489901902506</v>
-      </c>
-      <c r="S9">
-        <v>0.000349966388378582</v>
-      </c>
-      <c r="T9">
-        <v>0.000349966388378582</v>
+        <v>0.001406654647730148</v>
       </c>
     </row>
   </sheetData>
